--- a/data/trans_orig/P79A4_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P79A4_2023-Clase-trans_orig.xlsx
@@ -750,16 +750,16 @@
         <v>4214</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="M4" s="5" t="n">
         <v>5042</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.8356817882627932</v>
+        <v>0.8356817882627929</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1765391309763833</v>
+        <v>0.1761992867568704</v>
       </c>
       <c r="P4" s="6" t="n">
         <v>1</v>
@@ -771,16 +771,16 @@
         <v>4214</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="T4" s="5" t="n">
         <v>5042</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.8356817882627932</v>
+        <v>0.8356817882627929</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1765391309763833</v>
+        <v>0.1761992867568704</v>
       </c>
       <c r="W4" s="6" t="n">
         <v>1</v>
@@ -815,7 +815,7 @@
         <v>4152</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.1643182117372069</v>
+        <v>0.1643182117372068</v>
       </c>
       <c r="O5" s="6" t="n">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>4152</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.1643182117372069</v>
+        <v>0.1643182117372068</v>
       </c>
       <c r="V5" s="6" t="n">
         <v>0</v>
@@ -922,7 +922,7 @@
         <v>4801</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1611</v>
+        <v>959</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>6744</v>
@@ -931,7 +931,7 @@
         <v>0.7118417723058373</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2389500864301359</v>
+        <v>0.142156609283129</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>1</v>
@@ -952,7 +952,7 @@
         <v>4801</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1611</v>
+        <v>959</v>
       </c>
       <c r="T7" s="5" t="n">
         <v>6744</v>
@@ -961,7 +961,7 @@
         <v>0.7118417723058373</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2389500864301359</v>
+        <v>0.142156609283129</v>
       </c>
       <c r="W7" s="6" t="n">
         <v>1</v>
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5108</v>
+        <v>5785</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2881582276941625</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.757379251887936</v>
+        <v>0.857843390716871</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>0</v>
@@ -1014,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>5108</v>
+        <v>5785</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2881582276941625</v>
@@ -1023,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.757379251887936</v>
+        <v>0.857843390716871</v>
       </c>
     </row>
     <row r="9">
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6855</v>
+        <v>6196</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1227429043970536</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7425883525947529</v>
+        <v>0.6712653596266653</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -1140,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>6872</v>
+        <v>7091</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1864478494774527</v>
@@ -1149,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6903803872630545</v>
+        <v>0.7123292456913053</v>
       </c>
     </row>
     <row r="11">
@@ -1166,7 +1166,7 @@
         <v>8098</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2376</v>
+        <v>3035</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>9231</v>
@@ -1175,7 +1175,7 @@
         <v>0.8772570956029463</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2574116474052473</v>
+        <v>0.3287346403733347</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1200,7 +1200,7 @@
         <v>8098</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>3082</v>
+        <v>2863</v>
       </c>
       <c r="T11" s="5" t="n">
         <v>9954</v>
@@ -1209,7 +1209,7 @@
         <v>0.8135521505225471</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3096196127369454</v>
+        <v>0.2876707543086946</v>
       </c>
       <c r="W11" s="6" t="n">
         <v>1</v>
@@ -1317,7 +1317,7 @@
         <v>4086</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1837</v>
+        <v>1900</v>
       </c>
       <c r="M13" s="5" t="n">
         <v>5697</v>
@@ -1326,7 +1326,7 @@
         <v>0.7172498005783874</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3224671161372863</v>
+        <v>0.3335440707049985</v>
       </c>
       <c r="P13" s="6" t="n">
         <v>1</v>
@@ -1338,16 +1338,16 @@
         <v>6856</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4149</v>
+        <v>3863</v>
       </c>
       <c r="T13" s="5" t="n">
         <v>8467</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.809753271997397</v>
+        <v>0.8097532719973969</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4900735864412818</v>
+        <v>0.4561986883551176</v>
       </c>
       <c r="W13" s="6" t="n">
         <v>1</v>
@@ -1383,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3862</v>
+        <v>3802</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2827501994216126</v>
@@ -1392,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6779470118014964</v>
+        <v>0.6672811678594023</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2</v>
@@ -1404,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4318</v>
+        <v>4604</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1902467280026031</v>
@@ -1413,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5099264135587188</v>
+        <v>0.5438013116448818</v>
       </c>
     </row>
     <row r="15">
@@ -1654,19 +1654,19 @@
         <v>8704</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3196</v>
+        <v>3644</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>14377</v>
+        <v>14321</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.4643227137346333</v>
+        <v>0.4643227137346334</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1705252439725731</v>
+        <v>0.1943889212680483</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.7669815054933348</v>
+        <v>0.764010627221537</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>12</v>
@@ -1675,19 +1675,19 @@
         <v>9714</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>6424</v>
+        <v>6773</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>12153</v>
+        <v>12136</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.7992928786629157</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5285902286966705</v>
+        <v>0.5572729994998205</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>1</v>
+        <v>0.9985628398894143</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>19</v>
@@ -1696,19 +1696,19 @@
         <v>18417</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>10613</v>
+        <v>11510</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>24498</v>
+        <v>24175</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.5960736388762953</v>
+        <v>0.5960736388762952</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3434965193549841</v>
+        <v>0.3725129157656568</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7928566491138113</v>
+        <v>0.7824291778356733</v>
       </c>
     </row>
     <row r="20">
@@ -1725,19 +1725,19 @@
         <v>10041</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4368</v>
+        <v>4424</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>15549</v>
+        <v>15101</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5356772862653668</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2330184945066652</v>
+        <v>0.235989372778463</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.829474756027427</v>
+        <v>0.8056110787319519</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>3</v>
@@ -1746,19 +1746,19 @@
         <v>2439</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>5729</v>
+        <v>5380</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.2007071213370842</v>
+        <v>0.2007071213370843</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0</v>
+        <v>0.001437160110575823</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4714097713033295</v>
+        <v>0.4427270005001793</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>9</v>
@@ -1767,19 +1767,19 @@
         <v>12481</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>6400</v>
+        <v>6723</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>20285</v>
+        <v>19388</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.4039263611237049</v>
+        <v>0.4039263611237048</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2071433508861885</v>
+        <v>0.2175708221643267</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6565034806450158</v>
+        <v>0.6274870842343431</v>
       </c>
     </row>
     <row r="21">
